--- a/AI Data.xlsx
+++ b/AI Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The-w\Documents\Univertsity Year 3 Term 2\MAT301 AI and Mathematics\Project\MAT301-Unit-1-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575F9436-C3AE-4DE6-8052-26126E0780E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4565881-2D1A-4012-BC1B-E9D8901EBB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A558760A-1780-481D-BE8B-4EDE13168D6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A558760A-1780-481D-BE8B-4EDE13168D6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>Shape</t>
   </si>
@@ -241,6 +241,42 @@
   <si>
     <t>Number of collisions</t>
   </si>
+  <si>
+    <t>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 6.25</t>
+  </si>
+  <si>
+    <t>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 6.25</t>
+  </si>
+  <si>
+    <t>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 13 </t>
+  </si>
+  <si>
+    <t>Triangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</t>
+  </si>
+  <si>
+    <t>Triangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</t>
+  </si>
+  <si>
+    <t>Triangle - Goal Centrioid 400 - Obstacle Centrioid 13</t>
+  </si>
+  <si>
+    <t>Triangle - Goal Centrioid 200 - Obstacle Centrioid 13</t>
+  </si>
+  <si>
+    <t>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</t>
+  </si>
+  <si>
+    <t>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</t>
+  </si>
+  <si>
+    <t>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 13</t>
+  </si>
+  <si>
+    <t>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 13</t>
+  </si>
 </sst>
 </file>
 
@@ -388,6 +424,6076 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$12:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 13 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.7163040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.309615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6863539999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.889205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7642249999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1356670000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2053720000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9316800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.852196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5005040000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.711192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9465380000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C585-4482-A370-3151BF56038E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1120047696"/>
+        <c:axId val="1036136256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1120047696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036136256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1036136256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120047696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$12:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 13 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55B7-4AD7-A433-0BAE7E7C5290}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1128699408"/>
+        <c:axId val="1134234544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1128699408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134234544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1134234544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128699408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$12:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 13 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$12:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CE9-4107-B9EE-F686BCFC5C0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1225686000"/>
+        <c:axId val="1221568032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1225686000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221568032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221568032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225686000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Trapezoid</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7163040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A599-4273-852B-ED9751106FE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.309615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A599-4273-852B-ED9751106FE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoid - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6863539999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A599-4273-852B-ED9751106FE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trapezoid - Goal Centrioid 200 - Obstacle Centrioid 13 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.889205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A599-4273-852B-ED9751106FE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1134893904"/>
+        <c:axId val="1221570912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1134893904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221570912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221570912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134893904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Triangle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$17:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.7642249999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36EA-4D3D-BDA8-41BCF61F5830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1356670000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-36EA-4D3D-BDA8-41BCF61F5830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Triangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$J$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.2053720000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-36EA-4D3D-BDA8-41BCF61F5830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Triangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.9316800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-36EA-4D3D-BDA8-41BCF61F5830}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1120821440"/>
+        <c:axId val="1134232624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1120821440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1134232624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1134232624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1120821440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Rectangle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.852196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23A4-4AAA-897A-A9DFC0162E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 6.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$23:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5005040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23A4-4AAA-897A-A9DFC0162E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rectangle - Goal Centrioid 400 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$24:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.711192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23A4-4AAA-897A-A9DFC0162E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rectangle - Goal Centrioid 200 - Obstacle Centrioid 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average Time(Seconds)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Score</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Number of collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$25:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9465380000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-23A4-4AAA-897A-A9DFC0162E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1125392560"/>
+        <c:axId val="1036132896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1125392560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036132896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1036132896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125392560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>225879</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>178526</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE81DA44-C205-CF05-EAF2-1360438A63D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>109945</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1632</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5798F03A-9224-84AD-B069-AA60F590E89D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>188868</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>492035</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>25582</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAE9EC8-363D-A789-07AE-5351C5D99979}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402771</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3045DA-52F3-B625-F806-9923E1237864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493AB437-F0A8-6CC6-B43F-0DB881491604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDA8CB6-AE4D-BDB5-6ABD-F5A5DE6D67DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,10 +6806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E9BC30-B9D7-4A53-9A4A-601F34B43500}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,9 +6818,13 @@
     <col min="2" max="2" width="22.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.109375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="7" max="7" width="47.21875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -726,7 +6836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +6844,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -742,7 +6852,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -750,7 +6860,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -764,7 +6874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -778,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -792,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -806,7 +6916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -820,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -833,11 +6943,35 @@
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>1.7163040000000001</v>
+      </c>
+      <c r="I12">
+        <v>84.1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -850,8 +6984,20 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13">
+        <v>1.309615</v>
+      </c>
+      <c r="I13">
+        <v>110.6</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -864,8 +7010,20 @@
       <c r="D14">
         <v>5</v>
       </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>1.6863539999999999</v>
+      </c>
+      <c r="I14">
+        <v>81.8</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -878,8 +7036,20 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15">
+        <v>1.889205</v>
+      </c>
+      <c r="I15">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -893,7 +7063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -906,11 +7076,35 @@
       <c r="D17">
         <v>4</v>
       </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17">
+        <v>1.7642249999999999</v>
+      </c>
+      <c r="I17">
+        <v>75.7</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18">
+        <v>2.1356670000000002</v>
+      </c>
+      <c r="I18">
+        <v>77.2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -923,8 +7117,20 @@
       <c r="D19">
         <v>3</v>
       </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19">
+        <v>3.2053720000000001</v>
+      </c>
+      <c r="I19">
+        <v>44.4</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -937,8 +7143,20 @@
       <c r="D20">
         <v>2</v>
       </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>3.9316800000000001</v>
+      </c>
+      <c r="I20">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -952,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -965,8 +7183,20 @@
       <c r="D22">
         <v>3</v>
       </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22">
+        <v>1.852196</v>
+      </c>
+      <c r="I22">
+        <v>76.7</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -979,11 +7209,35 @@
       <c r="D23">
         <v>2</v>
       </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23">
+        <v>1.5005040000000001</v>
+      </c>
+      <c r="I23">
+        <v>94.5</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>1.711192</v>
+      </c>
+      <c r="I24">
+        <v>87.9</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -996,8 +7250,20 @@
       <c r="D25">
         <v>2</v>
       </c>
+      <c r="G25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25">
+        <v>1.9465380000000001</v>
+      </c>
+      <c r="I25">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1011,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1025,7 +7291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1039,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -1053,10 +7319,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -1070,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -1639,8 +7905,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>